--- a/Estadisticas/Estadisticas.xlsx
+++ b/Estadisticas/Estadisticas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1C4BF-4A0D-4108-BA67-1B064639DBFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FEED6A-238C-47D1-98BC-FC2D9C4A137B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>CantColores</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Secuancial Aleatorio</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 65 en iteracion 7755</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 63 en iteracion 2684</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 61 en iteracion 311</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 102 en iteracion 1382</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 98 en iteracion 2167</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 95 en iteracion 2198</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 205 en iteracion 4073</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 198 en iteracion 523</t>
+  </si>
+  <si>
+    <t>Nro cromatico: 191 en iteracion 2949</t>
   </si>
 </sst>
 </file>
@@ -186,72 +213,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'40%'!$A$3:$A$11</c:f>
+              <c:f>'40%'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'40%'!$B$3:$B$11</c:f>
+              <c:f>'40%'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2426</c:v>
+                  <c:v>2187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3188</c:v>
+                  <c:v>3497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2198</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>817</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,138 +575,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$25:$A$44</c:f>
+              <c:f>'90%'!$A$25:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$25:$B$44</c:f>
+              <c:f>'90%'!$B$25:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>521</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1180</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1386</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1491</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1445</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1141</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>743</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>455</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>236</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,6 +784,7 @@
         <c:crossAx val="1677833280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1677833280"/>
@@ -964,108 +992,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$47:$A$61</c:f>
+              <c:f>'90%'!$A$47:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>202</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>203</c:v>
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$47:$B$61</c:f>
+              <c:f>'90%'!$B$47:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>701</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1332</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1911</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2024</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1750</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1118</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,144 +1338,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$2:$A$22</c:f>
+              <c:f>'90%'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$2:$B$22</c:f>
+              <c:f>'90%'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>660</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1021</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1334</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1568</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1508</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1283</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>893</c:v>
+                  <c:v>1314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>608</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>313</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,138 +1501,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$25:$A$44</c:f>
+              <c:f>'90%'!$A$25:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$25:$B$44</c:f>
+              <c:f>'90%'!$B$25:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>521</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794</c:v>
+                  <c:v>920</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1180</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1386</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1491</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1445</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1141</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>743</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>455</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>236</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,108 +1658,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$47:$A$61</c:f>
+              <c:f>'90%'!$A$47:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>202</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>203</c:v>
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$47:$B$61</c:f>
+              <c:f>'90%'!$B$47:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>701</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1332</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1911</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2024</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1750</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1118</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,132 +2218,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'40%'!$A$18:$A$36</c:f>
+              <c:f>'40%'!$A$18:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'40%'!$B$18:$B$36</c:f>
+              <c:f>'40%'!$B$18:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276</c:v>
+                  <c:v>2885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>768</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>880</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>562</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1321</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,7 +2310,7 @@
         <c:axId val="1435893664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="45"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2400,6 +2368,7 @@
         <c:crossAx val="1439218640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1439218640"/>
@@ -2615,66 +2584,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'40%'!$A$39:$A$47</c:f>
+              <c:f>'40%'!$A$39:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'40%'!$B$39:$B$47</c:f>
+              <c:f>'40%'!$B$39:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1614</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3913</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3250</c:v>
+                  <c:v>3163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>928</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,72 +2883,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'40%'!$A$3:$A$11</c:f>
+              <c:f>'40%'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'40%'!$B$3:$B$11</c:f>
+              <c:f>'40%'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2426</c:v>
+                  <c:v>2187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3188</c:v>
+                  <c:v>3497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2198</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>817</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,137 +2986,71 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'40%'!$A$18:$A$37</c:f>
+              <c:f>'40%'!$A$18:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'40%'!$B$18:$B$37</c:f>
+              <c:f>'40%'!$B$18:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276</c:v>
+                  <c:v>2885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>768</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>880</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>562</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1321</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3179,28 +3088,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,28 +3121,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1614</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3913</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3250</c:v>
+                  <c:v>3163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>928</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3169,8 @@
         <c:axId val="1597398560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="45"/>
+          <c:max val="76"/>
+          <c:min val="59"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3562,40 +3472,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,40 +3517,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1218</c:v>
+                  <c:v>1733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2102</c:v>
+                  <c:v>2492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2376</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1047</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>435</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,102 +3849,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60%'!$A$18:$A$31</c:f>
+              <c:f>'60%'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60%'!$B$18:$B$31</c:f>
+              <c:f>'60%'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570</c:v>
+                  <c:v>1670</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1361</c:v>
+                  <c:v>2512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2222</c:v>
+                  <c:v>2498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2517</c:v>
+                  <c:v>1588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1826</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>942</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>310</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4269,7 +4167,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
-              <a:t>Walsh-Powell</a:t>
+              <a:t>Welsh-Powell</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4305,7 +4203,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7469816272965873E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.85853018372703416"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -4326,72 +4234,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60%'!$A$34:$A$42</c:f>
+              <c:f>'60%'!$A$34:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60%'!$B$34:$B$42</c:f>
+              <c:f>'60%'!$B$34:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1662</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,72 +4556,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60%'!$A$34:$A$42</c:f>
+              <c:f>'60%'!$A$34:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60%'!$B$34:$B$42</c:f>
+              <c:f>'60%'!$B$34:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1662</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4727,102 +4671,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'60%'!$A$18:$A$31</c:f>
+              <c:f>'60%'!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'60%'!$B$18:$B$31</c:f>
+              <c:f>'60%'!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570</c:v>
+                  <c:v>1670</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1361</c:v>
+                  <c:v>2512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2222</c:v>
+                  <c:v>2498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2517</c:v>
+                  <c:v>1588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1826</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>942</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>310</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,40 +4791,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,40 +4836,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1218</c:v>
+                  <c:v>1733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2102</c:v>
+                  <c:v>2492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2376</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1047</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>435</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,6 +5017,7 @@
         <c:crossAx val="1390276304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1390276304"/>
@@ -5388,144 +5321,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'90%'!$A$2:$A$22</c:f>
+              <c:f>'90%'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'90%'!$B$2:$B$22</c:f>
+              <c:f>'90%'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>660</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1021</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1334</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1568</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1508</c:v>
+                  <c:v>1525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1283</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>893</c:v>
+                  <c:v>1314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>608</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>313</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12586,15 +12513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13106,10 +13033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13118,12 +13045,15 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13131,310 +13061,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>191</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>998</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B6">
-        <v>2426</v>
+        <v>2187</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>3188</v>
+        <v>3497</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>2198</v>
+        <v>2633</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>817</v>
+        <v>877</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B21">
-        <v>276</v>
+        <v>2885</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>768</v>
+        <v>3507</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B23">
-        <v>1088</v>
+        <v>1926</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B24">
-        <v>880</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>562</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>329</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>59</v>
-      </c>
-      <c r="B28">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>61</v>
-      </c>
-      <c r="B30">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>63</v>
-      </c>
-      <c r="B32">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>64</v>
-      </c>
-      <c r="B33">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>65</v>
-      </c>
-      <c r="B34">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>66</v>
-      </c>
-      <c r="B35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>67</v>
-      </c>
-      <c r="B36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>68</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>206</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>1614</v>
+        <v>1695</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B42">
-        <v>3913</v>
+        <v>3895</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>3250</v>
+        <v>3163</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>928</v>
+        <v>848</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -13445,307 +13301,324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2121324-D916-4977-A166-27B419B66A18}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>106</v>
       </c>
-      <c r="B2">
-        <v>4</v>
+      <c r="B6">
+        <v>1733</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>107</v>
       </c>
-      <c r="B3">
-        <v>27</v>
+      <c r="B7">
+        <v>2492</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>108</v>
       </c>
-      <c r="B4">
-        <v>146</v>
+      <c r="B8">
+        <v>2425</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>109</v>
       </c>
-      <c r="B5">
-        <v>483</v>
+      <c r="B9">
+        <v>1506</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>110</v>
       </c>
-      <c r="B6">
-        <v>1218</v>
+      <c r="B10">
+        <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>111</v>
       </c>
-      <c r="B7">
-        <v>2102</v>
+      <c r="B11">
+        <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>112</v>
       </c>
-      <c r="B8">
-        <v>2376</v>
+      <c r="B12">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>113</v>
       </c>
-      <c r="B9">
-        <v>2033</v>
+      <c r="B13">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>114</v>
-      </c>
-      <c r="B10">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>115</v>
-      </c>
-      <c r="B11">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>117</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>99</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B19">
+        <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>100</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B20">
+        <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>101</v>
       </c>
-      <c r="B20">
-        <v>20</v>
+      <c r="B21">
+        <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>102</v>
       </c>
-      <c r="B21">
-        <v>131</v>
+      <c r="B22">
+        <v>1670</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>103</v>
       </c>
-      <c r="B22">
-        <v>570</v>
+      <c r="B23">
+        <v>2512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>104</v>
       </c>
-      <c r="B23">
-        <v>1361</v>
+      <c r="B24">
+        <v>2498</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>105</v>
       </c>
-      <c r="B24">
-        <v>2222</v>
+      <c r="B25">
+        <v>1588</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>106</v>
       </c>
-      <c r="B25">
-        <v>2517</v>
+      <c r="B26">
+        <v>602</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>107</v>
       </c>
-      <c r="B26">
-        <v>1826</v>
+      <c r="B27">
+        <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>108</v>
       </c>
-      <c r="B27">
-        <v>942</v>
+      <c r="B28">
+        <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>109</v>
       </c>
-      <c r="B28">
-        <v>310</v>
+      <c r="B29">
+        <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>110</v>
-      </c>
-      <c r="B29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>111</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>112</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>101</v>
+      </c>
+      <c r="B40">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>104</v>
+      </c>
+      <c r="B43">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>93</v>
-      </c>
-      <c r="B35">
-        <v>267</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>94</v>
-      </c>
-      <c r="B36">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>95</v>
-      </c>
-      <c r="B37">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>96</v>
-      </c>
-      <c r="B38">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>97</v>
-      </c>
-      <c r="B39">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>98</v>
-      </c>
-      <c r="B40">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>99</v>
-      </c>
-      <c r="B41">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>100</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13756,475 +13629,476 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24098836-0075-4358-A9D6-594EC8052AC2}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>205</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>206</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>207</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>208</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B5">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>209</v>
       </c>
-      <c r="B3">
-        <v>7</v>
+      <c r="B6">
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>210</v>
       </c>
-      <c r="B4">
-        <v>21</v>
+      <c r="B7">
+        <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>211</v>
       </c>
-      <c r="B5">
-        <v>65</v>
+      <c r="B8">
+        <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>212</v>
       </c>
-      <c r="B6">
-        <v>155</v>
+      <c r="B9">
+        <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>213</v>
       </c>
-      <c r="B7">
-        <v>359</v>
+      <c r="B10">
+        <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>214</v>
       </c>
-      <c r="B8">
-        <v>660</v>
+      <c r="B11">
+        <v>1323</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>215</v>
       </c>
-      <c r="B9">
-        <v>1021</v>
+      <c r="B12">
+        <v>1525</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>216</v>
       </c>
-      <c r="B10">
-        <v>1334</v>
+      <c r="B13">
+        <v>1425</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>217</v>
       </c>
-      <c r="B11">
-        <v>1568</v>
+      <c r="B14">
+        <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>218</v>
       </c>
-      <c r="B12">
-        <v>1508</v>
+      <c r="B15">
+        <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>219</v>
       </c>
-      <c r="B13">
-        <v>1283</v>
+      <c r="B16">
+        <v>625</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>220</v>
       </c>
-      <c r="B14">
-        <v>893</v>
+      <c r="B17">
+        <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>221</v>
       </c>
-      <c r="B15">
-        <v>608</v>
+      <c r="B18">
+        <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>222</v>
       </c>
-      <c r="B16">
-        <v>313</v>
+      <c r="B19">
+        <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>223</v>
       </c>
-      <c r="B17">
-        <v>137</v>
+      <c r="B20">
+        <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>224</v>
       </c>
-      <c r="B18">
-        <v>44</v>
+      <c r="B21">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>225</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>226</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>227</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>228</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>199</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>200</v>
       </c>
-      <c r="B25">
-        <v>6</v>
+      <c r="B27">
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>201</v>
       </c>
-      <c r="B26">
-        <v>14</v>
+      <c r="B28">
+        <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>202</v>
       </c>
-      <c r="B27">
-        <v>45</v>
+      <c r="B29">
+        <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>203</v>
       </c>
-      <c r="B28">
-        <v>121</v>
+      <c r="B30">
+        <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>204</v>
       </c>
-      <c r="B29">
-        <v>258</v>
+      <c r="B31">
+        <v>920</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>205</v>
       </c>
-      <c r="B30">
-        <v>521</v>
+      <c r="B32">
+        <v>1232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>206</v>
       </c>
-      <c r="B31">
-        <v>794</v>
+      <c r="B33">
+        <v>1481</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>207</v>
       </c>
-      <c r="B32">
-        <v>1180</v>
+      <c r="B34">
+        <v>1508</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>208</v>
       </c>
-      <c r="B33">
-        <v>1386</v>
+      <c r="B35">
+        <v>1379</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>209</v>
       </c>
-      <c r="B34">
-        <v>1491</v>
+      <c r="B36">
+        <v>1084</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>210</v>
       </c>
-      <c r="B35">
-        <v>1445</v>
+      <c r="B37">
+        <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>211</v>
       </c>
-      <c r="B36">
-        <v>1141</v>
+      <c r="B38">
+        <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>212</v>
       </c>
-      <c r="B37">
-        <v>743</v>
+      <c r="B39">
+        <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>213</v>
       </c>
-      <c r="B38">
-        <v>455</v>
+      <c r="B40">
+        <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>214</v>
       </c>
-      <c r="B39">
-        <v>236</v>
+      <c r="B41">
+        <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>215</v>
       </c>
-      <c r="B40">
-        <v>95</v>
+      <c r="B42">
+        <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>216</v>
       </c>
-      <c r="B41">
-        <v>38</v>
+      <c r="B43">
+        <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>217</v>
-      </c>
-      <c r="B42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>218</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>219</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B50">
-        <v>271</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B51">
-        <v>701</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B52">
-        <v>1332</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B53">
-        <v>1911</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B54">
-        <v>2024</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B55">
-        <v>1750</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B56">
-        <v>1118</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B57">
-        <v>550</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B58">
-        <v>184</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B59">
-        <v>41</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>206</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
